--- a/TorqueCurve_KTM_525_Stock_Dyno.xlsx
+++ b/TorqueCurve_KTM_525_Stock_Dyno.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ambar\Documents\MUR\lapSim2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ambar-Surface\Documents\MUR\lapSim2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C5F6B1-B9A3-47E7-AFCA-F337A84F844C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7965" xr2:uid="{A5821B09-F92E-4404-BC13-A78DB00B6E8F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -88,6 +94,1342 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.4968197157173533E-2"/>
+          <c:y val="0.10000673019946657"/>
+          <c:w val="0.92365517946620312"/>
+          <c:h val="0.83744317811483504"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DataSheet!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6999.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DataSheet!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>32.457099999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.511099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.6068</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.1252</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.966200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.312600000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.491100000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.6663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.934699999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.4893</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E99-4E68-A30D-902512887DAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DataSheet!$A$3:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>8200.4459944689006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8141.9420430544697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8054.18611593283</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7974.7878961561</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7912.1050910692202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7849.4222859823303</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7770.0240662056103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7678.08928541151</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7561.0813825826499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7456.6100407711801</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7381.3906746669099</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7285.2770402003498</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7184.9845520613399</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7080.5132102498601</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6984.3995757833</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6871.5705266269097</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6754.5626237980496</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6616.6604526069004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6491.2948424331298</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6395.1812079665697</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6269.8155977928</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6190.41737801607</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6094.3037435495098</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5977.2958407206597</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5856.1090842193498</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5726.5646203731103</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5617.9144248891798</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5551.0527661298302</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5459.1179853357298</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5396.43518024885</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5291.9638384373702</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5208.3867649881904</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5099.7365695042499</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4974.3709593304802</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4861.5419101740799</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4748.7128610176896</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4660.95693389605</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4589.9164214642396</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4497.9816406701502</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4443.65654292817</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4393.5102988586696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DataSheet!$B$3:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>28.7092003530508</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.667239461131398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.691967515803402</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.853605822553401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.820042395825901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.7419323845942</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.844160008166803</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.843914912515103</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.865619666274803</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.887261353662304</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.751736293785498</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39.747682179728798</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.630148692634201</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41.628610686170603</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42.403701744997697</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43.339768594233398</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44.1950911443206</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44.689247050455499</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44.972073798932399</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44.801314998402503</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45.133920109314602</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45.180410167016397</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45.390787737057003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46.003640263503101</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46.433052233027098</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>46.907924165751801</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>46.893239646546498</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>46.440259881254001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>46.101153431615401</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45.502434553760502</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44.799271934017199</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44.162193493620897</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43.256612144767097</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42.974357370830397</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42.954840067024698</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42.636952895266703</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42.126531551936402</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41.650191480912</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40.9837080352603</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.690092288496103</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40.404374340289898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2E99-4E68-A30D-902512887DAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DataSheet!$H$3:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7999.9970703125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6999.9990234375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5999.998046875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5500.0048828125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000.0048828125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4500.0009765625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3999.998046875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3500.0009765625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2999.99609375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2500.0029296875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DataSheet!$I$3:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>26.293590545654297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.413589477539063</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.623790740966797</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.188121795654297</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.603370666503906</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.387619018554688</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.621261596679688</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.655399322509766</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.586101531982422</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.265079498291016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.494258880615234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2E99-4E68-A30D-902512887DAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="540299304"/>
+        <c:axId val="540293728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="540299304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540293728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="540293728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540299304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B99FAF44-BC81-47B6-995D-0AFDEF3E42A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -387,15 +1729,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1819B3CB-2CE0-441D-B080-13268A5D4D13}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,7 +1745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -411,95 +1753,221 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8200.4459944689006</v>
       </c>
       <c r="B3">
         <v>28.7092003530508</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>8000</v>
+      </c>
+      <c r="F3">
+        <v>32.457099999999997</v>
+      </c>
+      <c r="H3">
+        <v>7999.9970703125</v>
+      </c>
+      <c r="I3">
+        <v>26.293590545654297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8141.9420430544697</v>
       </c>
       <c r="B4">
         <v>29.667239461131398</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>7500</v>
+      </c>
+      <c r="F4">
+        <v>34.511099999999999</v>
+      </c>
+      <c r="H4">
+        <v>7500</v>
+      </c>
+      <c r="I4">
+        <v>27.413589477539063</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8054.18611593283</v>
       </c>
       <c r="B5">
         <v>30.691967515803402</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>6999.99</v>
+      </c>
+      <c r="F5">
+        <v>39.6068</v>
+      </c>
+      <c r="H5">
+        <v>6999.9990234375</v>
+      </c>
+      <c r="I5">
+        <v>32.623790740966797</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7974.7878961561</v>
       </c>
       <c r="B6">
         <v>31.853605822553401</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>6000</v>
+      </c>
+      <c r="F6">
+        <v>48.1252</v>
+      </c>
+      <c r="H6">
+        <v>5999.998046875</v>
+      </c>
+      <c r="I6">
+        <v>43.188121795654297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7912.1050910692202</v>
       </c>
       <c r="B7">
         <v>32.820042395825901</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>5500</v>
+      </c>
+      <c r="F7">
+        <v>49.966200000000001</v>
+      </c>
+      <c r="H7">
+        <v>5500.0048828125</v>
+      </c>
+      <c r="I7">
+        <v>45.603370666503906</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7849.4222859823303</v>
       </c>
       <c r="B8">
         <v>33.7419323845942</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>5000</v>
+      </c>
+      <c r="F8">
+        <v>52.312600000000003</v>
+      </c>
+      <c r="H8">
+        <v>5000.0048828125</v>
+      </c>
+      <c r="I8">
+        <v>48.387619018554688</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7770.0240662056103</v>
       </c>
       <c r="B9">
         <v>34.844160008166803</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>4500</v>
+      </c>
+      <c r="F9">
+        <v>48.491100000000003</v>
+      </c>
+      <c r="H9">
+        <v>4500.0009765625</v>
+      </c>
+      <c r="I9">
+        <v>48.621261596679688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7678.08928541151</v>
       </c>
       <c r="B10">
         <v>35.843914912515103</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>4000</v>
+      </c>
+      <c r="F10">
+        <v>42.6663</v>
+      </c>
+      <c r="H10">
+        <v>3999.998046875</v>
+      </c>
+      <c r="I10">
+        <v>41.655399322509766</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7561.0813825826499</v>
       </c>
       <c r="B11">
         <v>36.865619666274803</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>3500</v>
+      </c>
+      <c r="F11">
+        <v>38.934699999999999</v>
+      </c>
+      <c r="H11">
+        <v>3500.0009765625</v>
+      </c>
+      <c r="I11">
+        <v>40.586101531982422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7456.6100407711801</v>
       </c>
       <c r="B12">
         <v>37.887261353662304</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>3000</v>
+      </c>
+      <c r="F12">
+        <v>36.4893</v>
+      </c>
+      <c r="H12">
+        <v>2999.99609375</v>
+      </c>
+      <c r="I12">
+        <v>37.265079498291016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7381.3906746669099</v>
       </c>
       <c r="B13">
         <v>38.751736293785498</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>2500.0029296875</v>
+      </c>
+      <c r="I13">
+        <v>40.494258880615234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7285.2770402003498</v>
       </c>
@@ -507,7 +1975,7 @@
         <v>39.747682179728798</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7184.9845520613399</v>
       </c>
@@ -515,7 +1983,7 @@
         <v>40.630148692634201</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7080.5132102498601</v>
       </c>
@@ -741,5 +2209,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>